--- a/Output_testing/R1_201907/Country/HKD/MN/LESOTHO_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/LESOTHO_201907_HKD_MN.xlsx
@@ -553,8 +553,10 @@
       <c r="F7" s="8" t="n">
         <v>1.186131</v>
       </c>
-      <c r="G7" s="8" t="n">
-        <v>0.306567</v>
+      <c r="G7" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H7" s="9" t="n">
         <v>10.50605992960714</v>
@@ -615,14 +617,20 @@
       <c r="D9" s="8" t="n">
         <v>0.66756</v>
       </c>
-      <c r="E9" s="8" t="n">
-        <v>0.094614</v>
+      <c r="E9" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="F9" s="8" t="n">
-        <v>0.102899</v>
+      <c r="F9" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
-      <c r="G9" s="8" t="n">
-        <v>0.001477</v>
+      <c r="G9" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
       </c>
       <c r="H9" s="9" t="n">
         <v>-85.82689196476721</v>

--- a/Output_testing/R1_201907/Country/HKD/MN/LESOTHO_201907_HKD_MN.xlsx
+++ b/Output_testing/R1_201907/Country/HKD/MN/LESOTHO_201907_HKD_MN.xlsx
@@ -818,136 +818,443 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="11" t="n"/>
-      <c r="C18" s="12" t="n"/>
-      <c r="D18" s="13" t="n"/>
-      <c r="E18" s="12" t="n"/>
-      <c r="F18" s="13" t="n"/>
-      <c r="G18" s="12" t="n"/>
-      <c r="H18" s="13" t="n"/>
-      <c r="I18" s="12" t="n"/>
-      <c r="J18" s="13" t="n"/>
-      <c r="K18" s="13" t="n"/>
+      <c r="A18" s="11" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="inlineStr">
+        <is>
+          <t>KNITTED OR CROCHETED FABRICS (INCLUDING TUBULAR KNIT FABRICS, N.E.S., PILE FABRICS AND OPEN-WORK FABRICS), N.E.S.</t>
+        </is>
+      </c>
+      <c r="C18" s="8" t="n">
+        <v>3.012295</v>
+      </c>
+      <c r="D18" s="9" t="n">
+        <v>3.906765786946665</v>
+      </c>
+      <c r="E18" s="8" t="n">
+        <v>5.106609</v>
+      </c>
+      <c r="F18" s="9" t="n">
+        <v>7.001502497357199</v>
+      </c>
+      <c r="G18" s="8" t="n">
+        <v>3.251401</v>
+      </c>
+      <c r="H18" s="9" t="n">
+        <v>3.90940161140305</v>
+      </c>
+      <c r="I18" s="8" t="n">
+        <v>13.841196</v>
+      </c>
+      <c r="J18" s="9" t="n">
+        <v>24.93704435835782</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>333.8652739039422</v>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="11" t="n"/>
-      <c r="C19" s="12" t="n"/>
-      <c r="D19" s="13" t="n"/>
-      <c r="E19" s="12" t="n"/>
-      <c r="F19" s="13" t="n"/>
-      <c r="G19" s="12" t="n"/>
-      <c r="H19" s="13" t="n"/>
-      <c r="I19" s="12" t="n"/>
-      <c r="J19" s="13" t="n"/>
-      <c r="K19" s="13" t="n"/>
+      <c r="A19" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B19" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C19" s="8" t="n">
+        <v>19.340871</v>
+      </c>
+      <c r="D19" s="9" t="n">
+        <v>25.08394865461349</v>
+      </c>
+      <c r="E19" s="8" t="n">
+        <v>17.122058</v>
+      </c>
+      <c r="F19" s="9" t="n">
+        <v>23.47548673628524</v>
+      </c>
+      <c r="G19" s="8" t="n">
+        <v>20.245657</v>
+      </c>
+      <c r="H19" s="9" t="n">
+        <v>24.3428614617863</v>
+      </c>
+      <c r="I19" s="8" t="n">
+        <v>10.422668</v>
+      </c>
+      <c r="J19" s="9" t="n">
+        <v>18.77804015263107</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-18.42180814276944</v>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="11" t="n"/>
-      <c r="C20" s="12" t="n"/>
-      <c r="D20" s="13" t="n"/>
-      <c r="E20" s="12" t="n"/>
-      <c r="F20" s="13" t="n"/>
-      <c r="G20" s="12" t="n"/>
-      <c r="H20" s="13" t="n"/>
-      <c r="I20" s="12" t="n"/>
-      <c r="J20" s="13" t="n"/>
-      <c r="K20" s="13" t="n"/>
+      <c r="A20" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C20" s="8" t="n">
+        <v>4.555917</v>
+      </c>
+      <c r="D20" s="9" t="n">
+        <v>5.908750857325956</v>
+      </c>
+      <c r="E20" s="8" t="n">
+        <v>1.892815</v>
+      </c>
+      <c r="F20" s="9" t="n">
+        <v>2.595175966974399</v>
+      </c>
+      <c r="G20" s="8" t="n">
+        <v>11.504219</v>
+      </c>
+      <c r="H20" s="9" t="n">
+        <v>13.83237942552567</v>
+      </c>
+      <c r="I20" s="8" t="n">
+        <v>9.385173</v>
+      </c>
+      <c r="J20" s="9" t="n">
+        <v>16.90883326931156</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>191.9019463918039</v>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="11" t="n"/>
-      <c r="C21" s="12" t="n"/>
-      <c r="D21" s="13" t="n"/>
-      <c r="E21" s="12" t="n"/>
-      <c r="F21" s="13" t="n"/>
-      <c r="G21" s="12" t="n"/>
-      <c r="H21" s="13" t="n"/>
-      <c r="I21" s="12" t="n"/>
-      <c r="J21" s="13" t="n"/>
-      <c r="K21" s="13" t="n"/>
+      <c r="A21" s="11" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="inlineStr">
+        <is>
+          <t>TEXTILE YARN</t>
+        </is>
+      </c>
+      <c r="C21" s="8" t="n">
+        <v>16.676249</v>
+      </c>
+      <c r="D21" s="9" t="n">
+        <v>21.62809387785842</v>
+      </c>
+      <c r="E21" s="8" t="n">
+        <v>17.754641</v>
+      </c>
+      <c r="F21" s="9" t="n">
+        <v>24.34280033994781</v>
+      </c>
+      <c r="G21" s="8" t="n">
+        <v>14.283601</v>
+      </c>
+      <c r="H21" s="9" t="n">
+        <v>17.17423743365959</v>
+      </c>
+      <c r="I21" s="8" t="n">
+        <v>7.971218</v>
+      </c>
+      <c r="J21" s="9" t="n">
+        <v>14.36137576956069</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-23.33120322186734</v>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="11" t="n"/>
-      <c r="C22" s="12" t="n"/>
-      <c r="D22" s="13" t="n"/>
-      <c r="E22" s="12" t="n"/>
-      <c r="F22" s="13" t="n"/>
-      <c r="G22" s="12" t="n"/>
-      <c r="H22" s="13" t="n"/>
-      <c r="I22" s="12" t="n"/>
-      <c r="J22" s="13" t="n"/>
-      <c r="K22" s="13" t="n"/>
+      <c r="A22" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C22" s="8" t="n">
+        <v>12.776919</v>
+      </c>
+      <c r="D22" s="9" t="n">
+        <v>16.57089694461824</v>
+      </c>
+      <c r="E22" s="8" t="n">
+        <v>13.431921</v>
+      </c>
+      <c r="F22" s="9" t="n">
+        <v>18.41606209243837</v>
+      </c>
+      <c r="G22" s="8" t="n">
+        <v>10.763091</v>
+      </c>
+      <c r="H22" s="9" t="n">
+        <v>12.94126602626919</v>
+      </c>
+      <c r="I22" s="8" t="n">
+        <v>5.607017</v>
+      </c>
+      <c r="J22" s="9" t="n">
+        <v>10.10190388511704</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-20.97488257610672</v>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="11" t="n"/>
-      <c r="C23" s="12" t="n"/>
-      <c r="D23" s="13" t="n"/>
-      <c r="E23" s="12" t="n"/>
-      <c r="F23" s="13" t="n"/>
-      <c r="G23" s="12" t="n"/>
-      <c r="H23" s="13" t="n"/>
-      <c r="I23" s="12" t="n"/>
-      <c r="J23" s="13" t="n"/>
-      <c r="K23" s="13" t="n"/>
+      <c r="A23" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C23" s="8" t="n">
+        <v>3.92441</v>
+      </c>
+      <c r="D23" s="9" t="n">
+        <v>5.089724187687913</v>
+      </c>
+      <c r="E23" s="8" t="n">
+        <v>4.430065</v>
+      </c>
+      <c r="F23" s="9" t="n">
+        <v>6.073915422338919</v>
+      </c>
+      <c r="G23" s="8" t="n">
+        <v>4.195371</v>
+      </c>
+      <c r="H23" s="9" t="n">
+        <v>5.044407056476155</v>
+      </c>
+      <c r="I23" s="8" t="n">
+        <v>2.811204</v>
+      </c>
+      <c r="J23" s="9" t="n">
+        <v>5.064816569925961</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>15.97070044355264</v>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="11" t="n"/>
-      <c r="C24" s="12" t="n"/>
-      <c r="D24" s="13" t="n"/>
-      <c r="E24" s="12" t="n"/>
-      <c r="F24" s="13" t="n"/>
-      <c r="G24" s="12" t="n"/>
-      <c r="H24" s="13" t="n"/>
-      <c r="I24" s="12" t="n"/>
-      <c r="J24" s="13" t="n"/>
-      <c r="K24" s="13" t="n"/>
+      <c r="A24" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>3.486457</v>
+      </c>
+      <c r="D24" s="9" t="n">
+        <v>4.521725437004247</v>
+      </c>
+      <c r="E24" s="8" t="n">
+        <v>2.040436</v>
+      </c>
+      <c r="F24" s="9" t="n">
+        <v>2.797574231686337</v>
+      </c>
+      <c r="G24" s="8" t="n">
+        <v>1.047366</v>
+      </c>
+      <c r="H24" s="9" t="n">
+        <v>1.259326157594455</v>
+      </c>
+      <c r="I24" s="8" t="n">
+        <v>0.981246</v>
+      </c>
+      <c r="J24" s="9" t="n">
+        <v>1.767865654706514</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>366.2874575884584</v>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="11" t="n"/>
-      <c r="C25" s="12" t="n"/>
-      <c r="D25" s="13" t="n"/>
-      <c r="E25" s="12" t="n"/>
-      <c r="F25" s="13" t="n"/>
-      <c r="G25" s="12" t="n"/>
-      <c r="H25" s="13" t="n"/>
-      <c r="I25" s="12" t="n"/>
-      <c r="J25" s="13" t="n"/>
-      <c r="K25" s="13" t="n"/>
+      <c r="A25" s="11" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE AND STATIONERY SUPPLIES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D25" s="9" t="n">
+        <v>0.1602862170129966</v>
+      </c>
+      <c r="E25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F25" s="9" t="n">
+        <v>0.08132620338334884</v>
+      </c>
+      <c r="G25" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H25" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I25" s="8" t="n">
+        <v>0.905592</v>
+      </c>
+      <c r="J25" s="9" t="n">
+        <v>1.631563332718789</v>
+      </c>
+      <c r="K25" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="11" t="n"/>
-      <c r="C26" s="12" t="n"/>
-      <c r="D26" s="13" t="n"/>
-      <c r="E26" s="12" t="n"/>
-      <c r="F26" s="13" t="n"/>
-      <c r="G26" s="12" t="n"/>
-      <c r="H26" s="13" t="n"/>
-      <c r="I26" s="12" t="n"/>
-      <c r="J26" s="13" t="n"/>
-      <c r="K26" s="13" t="n"/>
+      <c r="A26" s="11" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL YARNS, SPECIAL TEXTILE FABRICS AND RELATED PRODUCTS</t>
+        </is>
+      </c>
+      <c r="C26" s="8" t="n">
+        <v>0.8367830000000001</v>
+      </c>
+      <c r="D26" s="9" t="n">
+        <v>1.08525731892082</v>
+      </c>
+      <c r="E26" s="8" t="n">
+        <v>0.864914</v>
+      </c>
+      <c r="F26" s="9" t="n">
+        <v>1.185854944249541</v>
+      </c>
+      <c r="G26" s="8" t="n">
+        <v>1.984519</v>
+      </c>
+      <c r="H26" s="9" t="n">
+        <v>2.386135015785494</v>
+      </c>
+      <c r="I26" s="8" t="n">
+        <v>0.826186</v>
+      </c>
+      <c r="J26" s="9" t="n">
+        <v>1.488501205405531</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-47.60332853244342</v>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="11" t="n"/>
-      <c r="C27" s="12" t="n"/>
-      <c r="D27" s="13" t="n"/>
-      <c r="E27" s="12" t="n"/>
-      <c r="F27" s="13" t="n"/>
-      <c r="G27" s="12" t="n"/>
-      <c r="H27" s="13" t="n"/>
-      <c r="I27" s="12" t="n"/>
-      <c r="J27" s="13" t="n"/>
-      <c r="K27" s="13" t="n"/>
+      <c r="A27" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C27" s="8" t="n">
+        <v>2.797162</v>
+      </c>
+      <c r="D27" s="9" t="n">
+        <v>3.627751200379547</v>
+      </c>
+      <c r="E27" s="8" t="n">
+        <v>2.687404</v>
+      </c>
+      <c r="F27" s="9" t="n">
+        <v>3.684610632497559</v>
+      </c>
+      <c r="G27" s="8" t="n">
+        <v>3.289054</v>
+      </c>
+      <c r="H27" s="9" t="n">
+        <v>3.954674617985185</v>
+      </c>
+      <c r="I27" s="8" t="n">
+        <v>0.821646</v>
+      </c>
+      <c r="J27" s="9" t="n">
+        <v>1.480321696829325</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-68.86394236362348</v>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="11" t="n"/>
-      <c r="C28" s="12" t="n"/>
-      <c r="D28" s="13" t="n"/>
-      <c r="E28" s="12" t="n"/>
-      <c r="F28" s="13" t="n"/>
-      <c r="G28" s="12" t="n"/>
-      <c r="H28" s="13" t="n"/>
-      <c r="I28" s="12" t="n"/>
-      <c r="J28" s="13" t="n"/>
-      <c r="K28" s="13" t="n"/>
+      <c r="A28" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C28" s="8" t="n">
+        <v>9.573919999999999</v>
+      </c>
+      <c r="D28" s="9" t="n">
+        <v>12.41679951763171</v>
+      </c>
+      <c r="E28" s="8" t="n">
+        <v>7.545723</v>
+      </c>
+      <c r="F28" s="9" t="n">
+        <v>10.34569093284128</v>
+      </c>
+      <c r="G28" s="8" t="n">
+        <v>12.588166</v>
+      </c>
+      <c r="H28" s="9" t="n">
+        <v>15.13568964425154</v>
+      </c>
+      <c r="I28" s="8" t="n">
+        <v>1.931411</v>
+      </c>
+      <c r="J28" s="9" t="n">
+        <v>3.479734105435703</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-29.44735905807611</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="11" t="n"/>
@@ -979,136 +1286,589 @@
       <c r="K30" s="13" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="11" t="n"/>
-      <c r="C31" s="12" t="n"/>
-      <c r="D31" s="13" t="n"/>
-      <c r="E31" s="12" t="n"/>
-      <c r="F31" s="13" t="n"/>
-      <c r="G31" s="12" t="n"/>
-      <c r="H31" s="13" t="n"/>
-      <c r="I31" s="12" t="n"/>
-      <c r="J31" s="13" t="n"/>
-      <c r="K31" s="13" t="n"/>
+      <c r="A31" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B31" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D31" s="9" t="n">
+        <v>69.20135817616344</v>
+      </c>
+      <c r="E31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F31" s="9" t="n">
+        <v>65.79525329817709</v>
+      </c>
+      <c r="G31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H31" s="9" t="n">
+        <v>7.425486729543364</v>
+      </c>
+      <c r="I31" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J31" s="9" t="n">
+        <v>48.68788878124521</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>69.46841364276307</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="11" t="n"/>
-      <c r="C32" s="12" t="n"/>
-      <c r="D32" s="13" t="n"/>
-      <c r="E32" s="12" t="n"/>
-      <c r="F32" s="13" t="n"/>
-      <c r="G32" s="12" t="n"/>
-      <c r="H32" s="13" t="n"/>
-      <c r="I32" s="12" t="n"/>
-      <c r="J32" s="13" t="n"/>
-      <c r="K32" s="13" t="n"/>
+      <c r="A32" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B32" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D32" s="9" t="n">
+        <v>9.645031294110934</v>
+      </c>
+      <c r="E32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F32" s="9" t="n">
+        <v>0.06394347457601376</v>
+      </c>
+      <c r="G32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H32" s="9" t="n">
+        <v>4.008073307248525</v>
+      </c>
+      <c r="I32" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J32" s="9" t="n">
+        <v>28.16545812171564</v>
+      </c>
+      <c r="K32" s="9" t="inlineStr">
+        <is>
+          <t>∞</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="11" t="n"/>
-      <c r="C33" s="12" t="n"/>
-      <c r="D33" s="13" t="n"/>
-      <c r="E33" s="12" t="n"/>
-      <c r="F33" s="13" t="n"/>
-      <c r="G33" s="12" t="n"/>
-      <c r="H33" s="13" t="n"/>
-      <c r="I33" s="12" t="n"/>
-      <c r="J33" s="13" t="n"/>
-      <c r="K33" s="13" t="n"/>
+      <c r="A33" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B33" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D33" s="9" t="n">
+        <v>18.09721063647304</v>
+      </c>
+      <c r="E33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F33" s="9" t="n">
+        <v>32.07744906545321</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>1.016104</v>
+      </c>
+      <c r="H33" s="9" t="n">
+        <v>85.66541132471876</v>
+      </c>
+      <c r="I33" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J33" s="9" t="n">
+        <v>23.14665309703915</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-91.76023873941871</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="11" t="n"/>
-      <c r="C34" s="12" t="n"/>
-      <c r="D34" s="13" t="n"/>
-      <c r="E34" s="12" t="n"/>
-      <c r="F34" s="13" t="n"/>
-      <c r="G34" s="12" t="n"/>
-      <c r="H34" s="13" t="n"/>
-      <c r="I34" s="12" t="n"/>
-      <c r="J34" s="13" t="n"/>
-      <c r="K34" s="13" t="n"/>
+      <c r="A34" s="11" t="inlineStr">
+        <is>
+          <t>821</t>
+        </is>
+      </c>
+      <c r="B34" s="1" t="inlineStr">
+        <is>
+          <t>FURNITURE AND PARTS THEREOF; BEDDING, MATTRESSES, MATTRESS SUPPORTS, CUSHIONS AND SIMILAR STUFFED FURNISHINGS</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G34" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H34" s="9" t="n">
+        <v>1.746434415760148</v>
+      </c>
+      <c r="I34" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K34" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="11" t="n"/>
-      <c r="C35" s="12" t="n"/>
-      <c r="D35" s="13" t="n"/>
-      <c r="E35" s="12" t="n"/>
-      <c r="F35" s="13" t="n"/>
-      <c r="G35" s="12" t="n"/>
-      <c r="H35" s="13" t="n"/>
-      <c r="I35" s="12" t="n"/>
-      <c r="J35" s="13" t="n"/>
-      <c r="K35" s="13" t="n"/>
+      <c r="A35" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B35" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D35" s="9" t="n">
+        <v>0.2014102071336138</v>
+      </c>
+      <c r="E35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F35" s="9" t="n">
+        <v>2.063354161793698</v>
+      </c>
+      <c r="G35" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H35" s="9" t="n">
+        <v>1.154594222729193</v>
+      </c>
+      <c r="I35" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K35" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="11" t="n"/>
-      <c r="C36" s="12" t="n"/>
-      <c r="D36" s="13" t="n"/>
-      <c r="E36" s="12" t="n"/>
-      <c r="F36" s="13" t="n"/>
-      <c r="G36" s="12" t="n"/>
-      <c r="H36" s="13" t="n"/>
-      <c r="I36" s="12" t="n"/>
-      <c r="J36" s="13" t="n"/>
-      <c r="K36" s="13" t="n"/>
+      <c r="A36" s="11" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="B36" s="1" t="inlineStr">
+        <is>
+          <t>PLATES, SHEETS, FILM, FOIL AND STRIP, OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D36" s="9" t="n">
+        <v>2.718869954464509</v>
+      </c>
+      <c r="E36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I36" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K36" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="11" t="n"/>
-      <c r="C37" s="12" t="n"/>
-      <c r="D37" s="13" t="n"/>
-      <c r="E37" s="12" t="n"/>
-      <c r="F37" s="13" t="n"/>
-      <c r="G37" s="12" t="n"/>
-      <c r="H37" s="13" t="n"/>
-      <c r="I37" s="12" t="n"/>
-      <c r="J37" s="13" t="n"/>
-      <c r="K37" s="13" t="n"/>
+      <c r="A37" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B37" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C37" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D37" s="9" t="n">
+        <v>0.1361197316544674</v>
+      </c>
+      <c r="E37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I37" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K37" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="11" t="n"/>
-      <c r="C38" s="12" t="n"/>
-      <c r="D38" s="13" t="n"/>
-      <c r="E38" s="12" t="n"/>
-      <c r="F38" s="13" t="n"/>
-      <c r="G38" s="12" t="n"/>
-      <c r="H38" s="13" t="n"/>
-      <c r="I38" s="12" t="n"/>
-      <c r="J38" s="13" t="n"/>
-      <c r="K38" s="13" t="n"/>
+      <c r="A38" s="11" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="B38" s="1" t="inlineStr">
+        <is>
+          <t>COTTON</t>
+        </is>
+      </c>
+      <c r="C38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I38" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K38" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="11" t="n"/>
-      <c r="C39" s="12" t="n"/>
-      <c r="D39" s="13" t="n"/>
-      <c r="E39" s="12" t="n"/>
-      <c r="F39" s="13" t="n"/>
-      <c r="G39" s="12" t="n"/>
-      <c r="H39" s="13" t="n"/>
-      <c r="I39" s="12" t="n"/>
-      <c r="J39" s="13" t="n"/>
-      <c r="K39" s="13" t="n"/>
+      <c r="A39" s="11" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="B39" s="1" t="inlineStr">
+        <is>
+          <t>PIGMENTS, PAINTS, VARNISHES AND RELATED MATERIALS</t>
+        </is>
+      </c>
+      <c r="C39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I39" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K39" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="11" t="n"/>
-      <c r="C40" s="12" t="n"/>
-      <c r="D40" s="13" t="n"/>
-      <c r="E40" s="12" t="n"/>
-      <c r="F40" s="13" t="n"/>
-      <c r="G40" s="12" t="n"/>
-      <c r="H40" s="13" t="n"/>
-      <c r="I40" s="12" t="n"/>
-      <c r="J40" s="13" t="n"/>
-      <c r="K40" s="13" t="n"/>
+      <c r="A40" s="11" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="B40" s="1" t="inlineStr">
+        <is>
+          <t>MEDICINAL AND PHARMACEUTICAL PRODUCTS, OTHER THAN MEDICAMENTS OF GROUP 542</t>
+        </is>
+      </c>
+      <c r="C40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I40" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K40" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="11" t="n"/>
-      <c r="C41" s="12" t="n"/>
-      <c r="D41" s="13" t="n"/>
-      <c r="E41" s="12" t="n"/>
-      <c r="F41" s="13" t="n"/>
-      <c r="G41" s="12" t="n"/>
-      <c r="H41" s="13" t="n"/>
-      <c r="I41" s="12" t="n"/>
-      <c r="J41" s="13" t="n"/>
-      <c r="K41" s="13" t="n"/>
+      <c r="A41" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B41" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I41" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K41" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="11" t="n"/>
@@ -1140,136 +1900,443 @@
       <c r="K43" s="13" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="11" t="n"/>
-      <c r="C44" s="12" t="n"/>
-      <c r="D44" s="13" t="n"/>
-      <c r="E44" s="12" t="n"/>
-      <c r="F44" s="13" t="n"/>
-      <c r="G44" s="12" t="n"/>
-      <c r="H44" s="13" t="n"/>
-      <c r="I44" s="12" t="n"/>
-      <c r="J44" s="13" t="n"/>
-      <c r="K44" s="13" t="n"/>
+      <c r="A44" s="11" t="inlineStr">
+        <is>
+          <t>655</t>
+        </is>
+      </c>
+      <c r="B44" s="1" t="inlineStr">
+        <is>
+          <t>KNITTED OR CROCHETED FABRICS (INCLUDING TUBULAR KNIT FABRICS, N.E.S., PILE FABRICS AND OPEN-WORK FABRICS), N.E.S.</t>
+        </is>
+      </c>
+      <c r="C44" s="8" t="n">
+        <v>3.012295</v>
+      </c>
+      <c r="D44" s="9" t="n">
+        <v>3.937189058530439</v>
+      </c>
+      <c r="E44" s="8" t="n">
+        <v>5.106609</v>
+      </c>
+      <c r="F44" s="9" t="n">
+        <v>7.065280944661236</v>
+      </c>
+      <c r="G44" s="8" t="n">
+        <v>3.251401</v>
+      </c>
+      <c r="H44" s="9" t="n">
+        <v>3.965963132703972</v>
+      </c>
+      <c r="I44" s="8" t="n">
+        <v>13.841196</v>
+      </c>
+      <c r="J44" s="9" t="n">
+        <v>25.07554351163874</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>333.8652739039422</v>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="11" t="n"/>
-      <c r="C45" s="12" t="n"/>
-      <c r="D45" s="13" t="n"/>
-      <c r="E45" s="12" t="n"/>
-      <c r="F45" s="13" t="n"/>
-      <c r="G45" s="12" t="n"/>
-      <c r="H45" s="13" t="n"/>
-      <c r="I45" s="12" t="n"/>
-      <c r="J45" s="13" t="n"/>
-      <c r="K45" s="13" t="n"/>
+      <c r="A45" s="11" t="inlineStr">
+        <is>
+          <t>892</t>
+        </is>
+      </c>
+      <c r="B45" s="1" t="inlineStr">
+        <is>
+          <t>PRINTED MATTER</t>
+        </is>
+      </c>
+      <c r="C45" s="8" t="n">
+        <v>18.92857</v>
+      </c>
+      <c r="D45" s="9" t="n">
+        <v>24.74039185990333</v>
+      </c>
+      <c r="E45" s="8" t="n">
+        <v>16.688866</v>
+      </c>
+      <c r="F45" s="9" t="n">
+        <v>23.0899853381774</v>
+      </c>
+      <c r="G45" s="8" t="n">
+        <v>20.157581</v>
+      </c>
+      <c r="H45" s="9" t="n">
+        <v>24.5876233323709</v>
+      </c>
+      <c r="I45" s="8" t="n">
+        <v>10.273407</v>
+      </c>
+      <c r="J45" s="9" t="n">
+        <v>18.61192228195266</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-19.0319033030333</v>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="11" t="n"/>
-      <c r="C46" s="12" t="n"/>
-      <c r="D46" s="13" t="n"/>
-      <c r="E46" s="12" t="n"/>
-      <c r="F46" s="13" t="n"/>
-      <c r="G46" s="12" t="n"/>
-      <c r="H46" s="13" t="n"/>
-      <c r="I46" s="12" t="n"/>
-      <c r="J46" s="13" t="n"/>
-      <c r="K46" s="13" t="n"/>
+      <c r="A46" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B46" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C46" s="8" t="n">
+        <v>4.555917</v>
+      </c>
+      <c r="D46" s="9" t="n">
+        <v>5.954764245856671</v>
+      </c>
+      <c r="E46" s="8" t="n">
+        <v>1.892815</v>
+      </c>
+      <c r="F46" s="9" t="n">
+        <v>2.618816077610202</v>
+      </c>
+      <c r="G46" s="8" t="n">
+        <v>11.504219</v>
+      </c>
+      <c r="H46" s="9" t="n">
+        <v>14.03250734823313</v>
+      </c>
+      <c r="I46" s="8" t="n">
+        <v>9.385173</v>
+      </c>
+      <c r="J46" s="9" t="n">
+        <v>17.00274412166095</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>191.9019463918039</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="11" t="n"/>
-      <c r="C47" s="12" t="n"/>
-      <c r="D47" s="13" t="n"/>
-      <c r="E47" s="12" t="n"/>
-      <c r="F47" s="13" t="n"/>
-      <c r="G47" s="12" t="n"/>
-      <c r="H47" s="13" t="n"/>
-      <c r="I47" s="12" t="n"/>
-      <c r="J47" s="13" t="n"/>
-      <c r="K47" s="13" t="n"/>
+      <c r="A47" s="11" t="inlineStr">
+        <is>
+          <t>651</t>
+        </is>
+      </c>
+      <c r="B47" s="1" t="inlineStr">
+        <is>
+          <t>TEXTILE YARN</t>
+        </is>
+      </c>
+      <c r="C47" s="8" t="n">
+        <v>16.676249</v>
+      </c>
+      <c r="D47" s="9" t="n">
+        <v>21.79651896647877</v>
+      </c>
+      <c r="E47" s="8" t="n">
+        <v>17.754641</v>
+      </c>
+      <c r="F47" s="9" t="n">
+        <v>24.56454503107661</v>
+      </c>
+      <c r="G47" s="8" t="n">
+        <v>14.283601</v>
+      </c>
+      <c r="H47" s="9" t="n">
+        <v>17.42271561343974</v>
+      </c>
+      <c r="I47" s="8" t="n">
+        <v>7.971218</v>
+      </c>
+      <c r="J47" s="9" t="n">
+        <v>14.44113816463245</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-23.33120322186734</v>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="11" t="n"/>
-      <c r="C48" s="12" t="n"/>
-      <c r="D48" s="13" t="n"/>
-      <c r="E48" s="12" t="n"/>
-      <c r="F48" s="13" t="n"/>
-      <c r="G48" s="12" t="n"/>
-      <c r="H48" s="13" t="n"/>
-      <c r="I48" s="12" t="n"/>
-      <c r="J48" s="13" t="n"/>
-      <c r="K48" s="13" t="n"/>
+      <c r="A48" s="11" t="inlineStr">
+        <is>
+          <t>899</t>
+        </is>
+      </c>
+      <c r="B48" s="1" t="inlineStr">
+        <is>
+          <t>MISCELLANEOUS MANUFACTURED ARTICLES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C48" s="8" t="n">
+        <v>12.669096</v>
+      </c>
+      <c r="D48" s="9" t="n">
+        <v>16.55901103732262</v>
+      </c>
+      <c r="E48" s="8" t="n">
+        <v>13.220725</v>
+      </c>
+      <c r="F48" s="9" t="n">
+        <v>18.29161708231557</v>
+      </c>
+      <c r="G48" s="8" t="n">
+        <v>9.746987000000001</v>
+      </c>
+      <c r="H48" s="9" t="n">
+        <v>11.88908753394149</v>
+      </c>
+      <c r="I48" s="8" t="n">
+        <v>5.536057</v>
+      </c>
+      <c r="J48" s="9" t="n">
+        <v>10.02945397105945</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-11.1963758998172</v>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="11" t="n"/>
-      <c r="C49" s="12" t="n"/>
-      <c r="D49" s="13" t="n"/>
-      <c r="E49" s="12" t="n"/>
-      <c r="F49" s="13" t="n"/>
-      <c r="G49" s="12" t="n"/>
-      <c r="H49" s="13" t="n"/>
-      <c r="I49" s="12" t="n"/>
-      <c r="J49" s="13" t="n"/>
-      <c r="K49" s="13" t="n"/>
+      <c r="A49" s="11" t="inlineStr">
+        <is>
+          <t>656</t>
+        </is>
+      </c>
+      <c r="B49" s="1" t="inlineStr">
+        <is>
+          <t>TULLES, LACE, EMBROIDERY, RIBBONS, TRIMMINGS AND OTHER SMALL WARES</t>
+        </is>
+      </c>
+      <c r="C49" s="8" t="n">
+        <v>3.923599</v>
+      </c>
+      <c r="D49" s="9" t="n">
+        <v>5.128299536685806</v>
+      </c>
+      <c r="E49" s="8" t="n">
+        <v>4.430065</v>
+      </c>
+      <c r="F49" s="9" t="n">
+        <v>6.129244245664918</v>
+      </c>
+      <c r="G49" s="8" t="n">
+        <v>4.195371</v>
+      </c>
+      <c r="H49" s="9" t="n">
+        <v>5.117389923302414</v>
+      </c>
+      <c r="I49" s="8" t="n">
+        <v>2.811204</v>
+      </c>
+      <c r="J49" s="9" t="n">
+        <v>5.092946319240972</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>15.97070044355264</v>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="11" t="n"/>
-      <c r="C50" s="12" t="n"/>
-      <c r="D50" s="13" t="n"/>
-      <c r="E50" s="12" t="n"/>
-      <c r="F50" s="13" t="n"/>
-      <c r="G50" s="12" t="n"/>
-      <c r="H50" s="13" t="n"/>
-      <c r="I50" s="12" t="n"/>
-      <c r="J50" s="13" t="n"/>
-      <c r="K50" s="13" t="n"/>
+      <c r="A50" s="11" t="inlineStr">
+        <is>
+          <t>895</t>
+        </is>
+      </c>
+      <c r="B50" s="1" t="inlineStr">
+        <is>
+          <t>OFFICE AND STATIONERY SUPPLIES, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D50" s="9" t="n">
+        <v>0.161534418563142</v>
+      </c>
+      <c r="E50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F50" s="9" t="n">
+        <v>0.08206702422557237</v>
+      </c>
+      <c r="G50" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H50" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="I50" s="8" t="n">
+        <v>0.905592</v>
+      </c>
+      <c r="J50" s="9" t="n">
+        <v>1.640624957539215</v>
+      </c>
+      <c r="K50" s="9" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="11" t="n"/>
-      <c r="C51" s="12" t="n"/>
-      <c r="D51" s="13" t="n"/>
-      <c r="E51" s="12" t="n"/>
-      <c r="F51" s="13" t="n"/>
-      <c r="G51" s="12" t="n"/>
-      <c r="H51" s="13" t="n"/>
-      <c r="I51" s="12" t="n"/>
-      <c r="J51" s="13" t="n"/>
-      <c r="K51" s="13" t="n"/>
+      <c r="A51" s="11" t="inlineStr">
+        <is>
+          <t>893</t>
+        </is>
+      </c>
+      <c r="B51" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES, N.E.S. OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C51" s="8" t="n">
+        <v>3.428992</v>
+      </c>
+      <c r="D51" s="9" t="n">
+        <v>4.481828567317745</v>
+      </c>
+      <c r="E51" s="8" t="n">
+        <v>2.040015</v>
+      </c>
+      <c r="F51" s="9" t="n">
+        <v>2.822475561830383</v>
+      </c>
+      <c r="G51" s="8" t="n">
+        <v>0.999825</v>
+      </c>
+      <c r="H51" s="9" t="n">
+        <v>1.219557073752437</v>
+      </c>
+      <c r="I51" s="8" t="n">
+        <v>0.8949</v>
+      </c>
+      <c r="J51" s="9" t="n">
+        <v>1.62125468699132</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>325.2558948478887</v>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="11" t="n"/>
-      <c r="C52" s="12" t="n"/>
-      <c r="D52" s="13" t="n"/>
-      <c r="E52" s="12" t="n"/>
-      <c r="F52" s="13" t="n"/>
-      <c r="G52" s="12" t="n"/>
-      <c r="H52" s="13" t="n"/>
-      <c r="I52" s="12" t="n"/>
-      <c r="J52" s="13" t="n"/>
-      <c r="K52" s="13" t="n"/>
+      <c r="A52" s="11" t="inlineStr">
+        <is>
+          <t>657</t>
+        </is>
+      </c>
+      <c r="B52" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL YARNS, SPECIAL TEXTILE FABRICS AND RELATED PRODUCTS</t>
+        </is>
+      </c>
+      <c r="C52" s="8" t="n">
+        <v>0.8367830000000001</v>
+      </c>
+      <c r="D52" s="9" t="n">
+        <v>1.093708575011503</v>
+      </c>
+      <c r="E52" s="8" t="n">
+        <v>0.864914</v>
+      </c>
+      <c r="F52" s="9" t="n">
+        <v>1.196657195209331</v>
+      </c>
+      <c r="G52" s="8" t="n">
+        <v>1.984519</v>
+      </c>
+      <c r="H52" s="9" t="n">
+        <v>2.420657799561036</v>
+      </c>
+      <c r="I52" s="8" t="n">
+        <v>0.826186</v>
+      </c>
+      <c r="J52" s="9" t="n">
+        <v>1.496768270004035</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-47.60332853244342</v>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="11" t="n"/>
-      <c r="C53" s="12" t="n"/>
-      <c r="D53" s="13" t="n"/>
-      <c r="E53" s="12" t="n"/>
-      <c r="F53" s="13" t="n"/>
-      <c r="G53" s="12" t="n"/>
-      <c r="H53" s="13" t="n"/>
-      <c r="I53" s="12" t="n"/>
-      <c r="J53" s="13" t="n"/>
-      <c r="K53" s="13" t="n"/>
+      <c r="A53" s="11" t="inlineStr">
+        <is>
+          <t>898</t>
+        </is>
+      </c>
+      <c r="B53" s="1" t="inlineStr">
+        <is>
+          <t>MUSICAL INSTRUMENTS AND PARTS AND ACCESSORIES THEREOF; RECORDS, TAPES AND OTHER SOUND OR SIMILAR RECORDINGS (EXCLUDING GOODS OF GROUPS 763 AND 883)</t>
+        </is>
+      </c>
+      <c r="C53" s="8" t="n">
+        <v>2.797162</v>
+      </c>
+      <c r="D53" s="9" t="n">
+        <v>3.656001693505158</v>
+      </c>
+      <c r="E53" s="8" t="n">
+        <v>2.687404</v>
+      </c>
+      <c r="F53" s="9" t="n">
+        <v>3.718174677522086</v>
+      </c>
+      <c r="G53" s="8" t="n">
+        <v>3.289054</v>
+      </c>
+      <c r="H53" s="9" t="n">
+        <v>4.011891152605455</v>
+      </c>
+      <c r="I53" s="8" t="n">
+        <v>0.821646</v>
+      </c>
+      <c r="J53" s="9" t="n">
+        <v>1.48854333282788</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-68.86394236362348</v>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="11" t="n"/>
-      <c r="C54" s="12" t="n"/>
-      <c r="D54" s="13" t="n"/>
-      <c r="E54" s="12" t="n"/>
-      <c r="F54" s="13" t="n"/>
-      <c r="G54" s="12" t="n"/>
-      <c r="H54" s="13" t="n"/>
-      <c r="I54" s="12" t="n"/>
-      <c r="J54" s="13" t="n"/>
-      <c r="K54" s="13" t="n"/>
+      <c r="A54" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B54" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C54" s="8" t="n">
+        <v>9.556521</v>
+      </c>
+      <c r="D54" s="9" t="n">
+        <v>12.49075204082481</v>
+      </c>
+      <c r="E54" s="8" t="n">
+        <v>7.532138</v>
+      </c>
+      <c r="F54" s="9" t="n">
+        <v>10.42113682170669</v>
+      </c>
+      <c r="G54" s="8" t="n">
+        <v>12.553756</v>
+      </c>
+      <c r="H54" s="9" t="n">
+        <v>15.31270165475168</v>
+      </c>
+      <c r="I54" s="8" t="n">
+        <v>1.931411</v>
+      </c>
+      <c r="J54" s="9" t="n">
+        <v>3.499060382452332</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-29.44735905807611</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="11" t="n"/>
@@ -1301,136 +2368,603 @@
       <c r="K56" s="13" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="11" t="n"/>
-      <c r="C57" s="12" t="n"/>
-      <c r="D57" s="13" t="n"/>
-      <c r="E57" s="12" t="n"/>
-      <c r="F57" s="13" t="n"/>
-      <c r="G57" s="12" t="n"/>
-      <c r="H57" s="13" t="n"/>
-      <c r="I57" s="12" t="n"/>
-      <c r="J57" s="13" t="n"/>
-      <c r="K57" s="13" t="n"/>
+      <c r="A57" s="11" t="inlineStr">
+        <is>
+          <t>931</t>
+        </is>
+      </c>
+      <c r="B57" s="1" t="inlineStr">
+        <is>
+          <t>SPECIAL TRANSACTIONS AND COMMODITIES NOT CLASSIFIED ACCORDING TO KIND</t>
+        </is>
+      </c>
+      <c r="C57" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D57" s="9" t="n">
+        <v>0.8650907783570015</v>
+      </c>
+      <c r="E57" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F57" s="9" t="n">
+        <v>14.91534022449109</v>
+      </c>
+      <c r="G57" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H57" s="9" t="n">
+        <v>2.75415698889202</v>
+      </c>
+      <c r="I57" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="J57" s="9" t="n">
+        <v>100</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-16.92913385826772</v>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="11" t="n"/>
-      <c r="C58" s="12" t="n"/>
-      <c r="D58" s="13" t="n"/>
-      <c r="E58" s="12" t="n"/>
-      <c r="F58" s="13" t="n"/>
-      <c r="G58" s="12" t="n"/>
-      <c r="H58" s="13" t="n"/>
-      <c r="I58" s="12" t="n"/>
-      <c r="J58" s="13" t="n"/>
-      <c r="K58" s="13" t="n"/>
+      <c r="A58" s="11" t="inlineStr">
+        <is>
+          <t>764</t>
+        </is>
+      </c>
+      <c r="B58" s="1" t="inlineStr">
+        <is>
+          <t>TELECOMMUNICATIONS EQUIPMENT, N.E.S.; AND PARTS, N.E.S., AND ACCESSORIES OF APPARATUS FALLING WITHIN DIVISION 76</t>
+        </is>
+      </c>
+      <c r="C58" s="8" t="n">
+        <v>0.508506</v>
+      </c>
+      <c r="D58" s="9" t="n">
+        <v>76.17382707172389</v>
+      </c>
+      <c r="E58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F58" s="9" t="n">
+        <v>64.0962225463462</v>
+      </c>
+      <c r="G58" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H58" s="9" t="n">
+        <v>60.80234015879648</v>
+      </c>
+      <c r="I58" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J58" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="11" t="n"/>
-      <c r="C59" s="12" t="n"/>
-      <c r="D59" s="13" t="n"/>
-      <c r="E59" s="12" t="n"/>
-      <c r="F59" s="13" t="n"/>
-      <c r="G59" s="12" t="n"/>
-      <c r="H59" s="13" t="n"/>
-      <c r="I59" s="12" t="n"/>
-      <c r="J59" s="13" t="n"/>
-      <c r="K59" s="13" t="n"/>
+      <c r="A59" s="11" t="inlineStr">
+        <is>
+          <t>724</t>
+        </is>
+      </c>
+      <c r="B59" s="1" t="inlineStr">
+        <is>
+          <t>TEXTILE AND LEATHER MACHINERY, AND PARTS THEREOF, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G59" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="H59" s="9" t="n">
+        <v>36.44350285231149</v>
+      </c>
+      <c r="I59" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J59" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-100</v>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="11" t="n"/>
-      <c r="C60" s="12" t="n"/>
-      <c r="D60" s="13" t="n"/>
-      <c r="E60" s="12" t="n"/>
-      <c r="F60" s="13" t="n"/>
-      <c r="G60" s="12" t="n"/>
-      <c r="H60" s="13" t="n"/>
-      <c r="I60" s="12" t="n"/>
-      <c r="J60" s="13" t="n"/>
-      <c r="K60" s="13" t="n"/>
+      <c r="A60" s="11" t="inlineStr">
+        <is>
+          <t>541</t>
+        </is>
+      </c>
+      <c r="B60" s="1" t="inlineStr">
+        <is>
+          <t>MEDICINAL AND PHARMACEUTICAL PRODUCTS, OTHER THAN MEDICAMENTS OF GROUP 542</t>
+        </is>
+      </c>
+      <c r="C60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E60" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F60" s="9" t="n">
+        <v>20.96412793032744</v>
+      </c>
+      <c r="G60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I60" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K60" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="11" t="n"/>
-      <c r="C61" s="12" t="n"/>
-      <c r="D61" s="13" t="n"/>
-      <c r="E61" s="12" t="n"/>
-      <c r="F61" s="13" t="n"/>
-      <c r="G61" s="12" t="n"/>
-      <c r="H61" s="13" t="n"/>
-      <c r="I61" s="12" t="n"/>
-      <c r="J61" s="13" t="n"/>
-      <c r="K61" s="13" t="n"/>
+      <c r="A61" s="11" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="B61" s="1" t="inlineStr">
+        <is>
+          <t>WOMEN'S OR GIRLS' COATS, CAPES, JACKETS, SUITS, TROUSERS, SHORTS, SHIRTS, DRESSES AND SKIRTS, UNDERWEAR, NIGHTWEAR AND SIMILAR ARTICLES, OF TEXTILE FABRICS, KNITTED OR CROCHETED</t>
+        </is>
+      </c>
+      <c r="C61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E61" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="F61" s="9" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="G61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I61" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K61" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="11" t="n"/>
-      <c r="C62" s="12" t="n"/>
-      <c r="D62" s="13" t="n"/>
-      <c r="E62" s="12" t="n"/>
-      <c r="F62" s="13" t="n"/>
-      <c r="G62" s="12" t="n"/>
-      <c r="H62" s="13" t="n"/>
-      <c r="I62" s="12" t="n"/>
-      <c r="J62" s="13" t="n"/>
-      <c r="K62" s="13" t="n"/>
+      <c r="A62" s="11" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="B62" s="1" t="inlineStr">
+        <is>
+          <t>COTTON</t>
+        </is>
+      </c>
+      <c r="C62" s="8" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="D62" s="9" t="n">
+        <v>22.96108214991911</v>
+      </c>
+      <c r="E62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I62" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K62" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="11" t="n"/>
-      <c r="C63" s="12" t="n"/>
-      <c r="D63" s="13" t="n"/>
-      <c r="E63" s="12" t="n"/>
-      <c r="F63" s="13" t="n"/>
-      <c r="G63" s="12" t="n"/>
-      <c r="H63" s="13" t="n"/>
-      <c r="I63" s="12" t="n"/>
-      <c r="J63" s="13" t="n"/>
-      <c r="K63" s="13" t="n"/>
+      <c r="A63" s="11" t="inlineStr">
+        <is>
+          <t>533</t>
+        </is>
+      </c>
+      <c r="B63" s="1" t="inlineStr">
+        <is>
+          <t>PIGMENTS, PAINTS, VARNISHES AND RELATED MATERIALS</t>
+        </is>
+      </c>
+      <c r="C63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I63" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K63" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="11" t="n"/>
-      <c r="C64" s="12" t="n"/>
-      <c r="D64" s="13" t="n"/>
-      <c r="E64" s="12" t="n"/>
-      <c r="F64" s="13" t="n"/>
-      <c r="G64" s="12" t="n"/>
-      <c r="H64" s="13" t="n"/>
-      <c r="I64" s="12" t="n"/>
-      <c r="J64" s="13" t="n"/>
-      <c r="K64" s="13" t="n"/>
+      <c r="A64" s="11" t="inlineStr">
+        <is>
+          <t>582</t>
+        </is>
+      </c>
+      <c r="B64" s="1" t="inlineStr">
+        <is>
+          <t>PLATES, SHEETS, FILM, FOIL AND STRIP, OF PLASTICS</t>
+        </is>
+      </c>
+      <c r="C64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I64" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K64" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="11" t="n"/>
-      <c r="C65" s="12" t="n"/>
-      <c r="D65" s="13" t="n"/>
-      <c r="E65" s="12" t="n"/>
-      <c r="F65" s="13" t="n"/>
-      <c r="G65" s="12" t="n"/>
-      <c r="H65" s="13" t="n"/>
-      <c r="I65" s="12" t="n"/>
-      <c r="J65" s="13" t="n"/>
-      <c r="K65" s="13" t="n"/>
+      <c r="A65" s="11" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="B65" s="1" t="inlineStr">
+        <is>
+          <t>MANUFACTURES OF LEATHER OR OF COMPOSITION LEATHER, N.E.S.; SADDLERY AND HARNESS</t>
+        </is>
+      </c>
+      <c r="C65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I65" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K65" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="11" t="n"/>
-      <c r="C66" s="12" t="n"/>
-      <c r="D66" s="13" t="n"/>
-      <c r="E66" s="12" t="n"/>
-      <c r="F66" s="13" t="n"/>
-      <c r="G66" s="12" t="n"/>
-      <c r="H66" s="13" t="n"/>
-      <c r="I66" s="12" t="n"/>
-      <c r="J66" s="13" t="n"/>
-      <c r="K66" s="13" t="n"/>
+      <c r="A66" s="11" t="inlineStr">
+        <is>
+          <t>629</t>
+        </is>
+      </c>
+      <c r="B66" s="1" t="inlineStr">
+        <is>
+          <t>ARTICLES OF RUBBER, N.E.S.</t>
+        </is>
+      </c>
+      <c r="C66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I66" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K66" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="11" t="n"/>
-      <c r="C67" s="12" t="n"/>
-      <c r="D67" s="13" t="n"/>
-      <c r="E67" s="12" t="n"/>
-      <c r="F67" s="13" t="n"/>
-      <c r="G67" s="12" t="n"/>
-      <c r="H67" s="13" t="n"/>
-      <c r="I67" s="12" t="n"/>
-      <c r="J67" s="13" t="n"/>
-      <c r="K67" s="13" t="n"/>
+      <c r="A67" s="11" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="B67" s="1" t="inlineStr">
+        <is>
+          <t>OTHERS</t>
+        </is>
+      </c>
+      <c r="C67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="G67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="H67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="I67" s="8" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="K67" s="9" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="11" t="n"/>
